--- a/xlsx/花旗参_intext.xlsx
+++ b/xlsx/花旗参_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>花旗参</t>
   </si>
@@ -29,13 +29,13 @@
     <t>保护状况</t>
   </si>
   <si>
-    <t>政策_政策_美國_花旗参</t>
+    <t>政策_政策_美国_花旗参</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>易危物種</t>
+    <t>易危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%90%8D</t>
   </si>
   <si>
-    <t>學名</t>
+    <t>学名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%82</t>
@@ -125,9 +125,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -149,13 +146,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>卑詩省</t>
+    <t>卑诗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E6%9D%BE%E7%B8%A3_(%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬拉松縣 (威斯康辛州)</t>
+    <t>马拉松县 (威斯康辛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -1043,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1069,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1098,10 +1095,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1127,10 +1124,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1156,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1185,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1214,10 +1211,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>7</v>
@@ -1243,10 +1240,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1272,10 +1269,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1301,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
